--- a/data/results_and_summaries/output_artifact.xlsx
+++ b/data/results_and_summaries/output_artifact.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\arnav\Documents\VS Code\RAG 12 Week Series\rag-chunking-strategies\data\results_and_summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A3DAE1-3600-4AB2-BEE2-2E0F72FEA18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE7684-F228-413D-8FDE-323B37A50F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_artifact" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Aggregated Count Tabe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Atomic</t>
   </si>
@@ -151,14 +153,127 @@
   </si>
   <si>
     <t>question_id</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Fixed → Structural</t>
+  </si>
+  <si>
+    <t>Structural → Semantic</t>
+  </si>
+  <si>
+    <t>Net Effect</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Atomic → Atomic</t>
+  </si>
+  <si>
+    <t>Stable atomic fact</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Atomic → ✗</t>
+  </si>
+  <si>
+    <t>Lost under semantic chunking</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Atomic → Structural</t>
+  </si>
+  <si>
+    <t>Structural → Structural</t>
+  </si>
+  <si>
+    <t>Atomicity removed</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Requires section-level context</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Structural → Compositional</t>
+  </si>
+  <si>
+    <t>Becomes multi-chunk</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>Q42</t>
+  </si>
+  <si>
+    <t>Summary Transition Table</t>
+  </si>
+  <si>
+    <t>Chunking Strategy</t>
+  </si>
+  <si>
+    <t>✗</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Semantic</t>
+  </si>
+  <si>
+    <t>Aggregated Count Tabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,12 +297,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,4 +1299,348 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0257E1-9491-4BAE-9154-F304650D60E6}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD7A7E-EE18-4D61-8017-02AEDCFCB28F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/results_and_summaries/output_artifact.xlsx
+++ b/data/results_and_summaries/output_artifact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\arnav\Documents\VS Code\RAG 12 Week Series\rag-chunking-strategies\data\results_and_summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE7684-F228-413D-8FDE-323B37A50F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20E2B5-B07D-4B3C-B065-C1B6E43AA04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_artifact" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1555,9 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD7A7E-EE18-4D61-8017-02AEDCFCB28F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1568,7 +1564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
